--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.1252743887908185</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-1.403671441318801</v>
+        <v>-1.4036714413188</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>4.759036435373696</v>
@@ -624,7 +624,7 @@
         <v>2.30502960309189</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-1.934109710011334</v>
+        <v>-1.934109710011333</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.356858187206756</v>
+        <v>-3.362790307920053</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.395401386784347</v>
+        <v>-4.512353888197511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5959321041925111</v>
+        <v>-0.6025655987540578</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.783494588449781</v>
+        <v>-6.852677770049362</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.043412534641735</v>
+        <v>-0.5826764819273316</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.451187633451991</v>
+        <v>-4.281410776413021</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.891710014856713</v>
+        <v>3.10534132264392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.252538637433625</v>
+        <v>1.111254086078264</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.17829218351708</v>
+        <v>10.51874199331841</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.293743534708112</v>
+        <v>1.20582498827333</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.462213195975965</v>
+        <v>5.383731684206919</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3874014162002534</v>
+        <v>0.432383460417708</v>
       </c>
     </row>
     <row r="7">
@@ -690,19 +690,19 @@
         <v>-0.03219552327295128</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3607436204060626</v>
+        <v>-0.3607436204060624</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5695669718379432</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.3000750914836774</v>
+        <v>-0.3000750914836773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.378211487873527</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3173505928742995</v>
+        <v>-0.3173505928742993</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6141115193385103</v>
+        <v>-0.5966508541466932</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7483965141904572</v>
+        <v>-0.7466018864979234</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09481401781193859</v>
+        <v>-0.1137341662255047</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5986726245552259</v>
+        <v>-0.5998190944477721</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1458241127118866</v>
+        <v>-0.09736887918886176</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5660193801038761</v>
+        <v>-0.5574417037251527</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.351274994541951</v>
+        <v>1.503591966224159</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6671213803124997</v>
+        <v>0.6757226813146021</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.65316910984457</v>
+        <v>1.871369475922945</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2390408433859526</v>
+        <v>0.2265415604388136</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.171265483646398</v>
+        <v>1.146669160450002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0854452060888586</v>
+        <v>0.106133601187195</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-4.051335632658118</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.320624410902226</v>
+        <v>0.3206244109022254</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-3.615630151423201</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.653875821588125</v>
+        <v>-6.762435960328088</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.354559136558475</v>
+        <v>-2.787854423290328</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.044552782175783</v>
+        <v>-6.846010955465909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.01346488166695778</v>
+        <v>0.5844177024286734</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.895322536356244</v>
+        <v>-5.69220667959172</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.19746303922865</v>
+        <v>-0.2480699603936263</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-2.167984735373408</v>
+        <v>-2.05685613287329</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.188538392171658</v>
+        <v>3.389938544826895</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.3033098584827691</v>
+        <v>-0.07628742939561996</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.147059076157269</v>
+        <v>7.670551044315416</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.97613231742845</v>
+        <v>-1.529045815860411</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.389210669652178</v>
+        <v>4.298912385775958</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.8120999638047928</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.0642699336953709</v>
+        <v>0.06426993369537076</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.4022749238441404</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.9407721237194361</v>
+        <v>-0.9552081698381824</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3834362010200458</v>
+        <v>-0.4320205939920865</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6433501520010553</v>
+        <v>-0.6378006549535689</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01065937282042246</v>
+        <v>0.05211830319021531</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7111971376914701</v>
+        <v>-0.7006777267932847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02728289367275479</v>
+        <v>-0.03204028868116671</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4773748771044515</v>
+        <v>-0.4982373431646127</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9017554706223282</v>
+        <v>0.9705712296474354</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.02458345849176355</v>
+        <v>0.01742108044094692</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9773835955756925</v>
+        <v>1.179231985280925</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3298860259083919</v>
+        <v>-0.2533910585115694</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7530802413712467</v>
+        <v>0.7520270287151962</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-1.277287287790951</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.00839125707005</v>
+        <v>8.008391257070048</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-2.805858760988337</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.225841781001209</v>
+        <v>-3.815495805381353</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.324701058657903</v>
+        <v>4.399780443970903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.778026929114997</v>
+        <v>-7.33826495253826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.267423929046323</v>
+        <v>3.391454600133284</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.410324041220981</v>
+        <v>-4.450891579822635</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.107146638380245</v>
+        <v>5.246075802252333</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9374800752150629</v>
+        <v>0.744239122177912</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.62084660975113</v>
+        <v>11.78716467136731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.447075762352932</v>
+        <v>1.350333488609266</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.94394207053809</v>
+        <v>12.35627872366612</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2618188382949933</v>
+        <v>0.06268363307599703</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.6290416062272</v>
+        <v>10.55824505175751</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.4544562141914109</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2.84936929008825</v>
+        <v>2.849369290088249</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.345576176475875</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8755781833437528</v>
+        <v>-0.8448511334832698</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.8724802706288306</v>
+        <v>0.8236774632599569</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6632481743302424</v>
+        <v>-0.6862165168039591</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3107372735261116</v>
+        <v>0.3032295019040387</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6426588436418571</v>
+        <v>-0.6467428466980113</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6977593373229453</v>
+        <v>0.7375063353401734</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6628901695288245</v>
+        <v>0.6263857572615867</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>8.585158367875659</v>
+        <v>7.90089738262026</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2658698721478546</v>
+        <v>0.2375083407237078</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.074622208381991</v>
+        <v>2.161914424483342</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09225040716949155</v>
+        <v>0.06581076390664754</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.67080740698727</v>
+        <v>2.570783042613982</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>-0.9380282111048952</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.287974599577999</v>
+        <v>1.287974599578001</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.1351596557451137</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.024088134616533</v>
+        <v>3.024088134616536</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.189332177954976</v>
+        <v>-2.382058912718133</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.219855208868492</v>
+        <v>1.396514346496997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.964358706981891</v>
+        <v>-6.284447345893572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.059264981561457</v>
+        <v>-2.973801262591689</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.118083929275462</v>
+        <v>-3.103950430520034</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0666151478985519</v>
+        <v>0.2044815906523626</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.809662205291172</v>
+        <v>3.575571191230738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.654995756946022</v>
+        <v>8.545199936712834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.381784405262852</v>
+        <v>3.776641880309938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.770856230226626</v>
+        <v>5.856520518857633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.100711755898358</v>
+        <v>3.065467258254195</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.637947845509384</v>
+        <v>5.708728505706799</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>-0.0698961887777034</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.0959720770518742</v>
+        <v>0.09597207705187441</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.01526178436622935</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3414700989030805</v>
+        <v>0.3414700989030808</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3949012598375892</v>
+        <v>-0.4550511895376739</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1439741039029534</v>
+        <v>0.1739741539238748</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3609006070375325</v>
+        <v>-0.4012242058438505</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.190558979681649</v>
+        <v>-0.1814616690970062</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2994133887888624</v>
+        <v>-0.300575893016345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005781317556652666</v>
+        <v>0.01724688115618155</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.541749633508199</v>
+        <v>1.234540958097841</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.341154551810027</v>
+        <v>3.137931873478307</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3871329101642537</v>
+        <v>0.3451599334589758</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5557470671964717</v>
+        <v>0.5419814081250575</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4510351158890555</v>
+        <v>0.4057060766046945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7760822919419063</v>
+        <v>0.7633718053124471</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.589315927038506</v>
+        <v>-8.565346060025949</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.800162631695795</v>
+        <v>-7.698517209938228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.13503915707378</v>
+        <v>-14.55616264498103</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.65318142310162</v>
+        <v>-10.70010079382638</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.644636818241393</v>
+        <v>-10.37568704464519</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.39129536441495</v>
+        <v>-7.403940589623964</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5276944489284536</v>
+        <v>0.9067466351465199</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.440135859663656</v>
+        <v>1.603935320225762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.8954057051803543</v>
+        <v>-0.359791827930355</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.00798487010063</v>
+        <v>1.88324288936917</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.339877404581759</v>
+        <v>-1.785408773493905</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1930199601519305</v>
+        <v>0.1400619945828881</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7828398887649681</v>
+        <v>-0.7554506605095541</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6602785980540551</v>
+        <v>-0.6576128275637219</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6655237839428743</v>
+        <v>-0.6727633974871526</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4778556331216616</v>
+        <v>-0.4827061084490817</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6285213642659071</v>
+        <v>-0.6444288770893354</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.4753906709367004</v>
+        <v>-0.4668035899148743</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1543426535211913</v>
+        <v>0.2433678736691692</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3390704703400478</v>
+        <v>0.3462856137739171</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03727501775438596</v>
+        <v>-0.02451819581284079</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1499857554997826</v>
+        <v>0.1444143882796236</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1286136717815169</v>
+        <v>-0.1285498618119892</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0290062745088212</v>
+        <v>0.01281291277056284</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>0.3437112418046021</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19.03846963219571</v>
+        <v>19.0384696321957</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.9417496723995875</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.683586262456482</v>
+        <v>-5.667671179252013</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.515703192695698</v>
+        <v>5.587384487469845</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.117284108225261</v>
+        <v>-3.746956353578805</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>13.53232699017233</v>
+        <v>14.46266809458625</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.71001774078683</v>
+        <v>-3.429567250726499</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>11.09560936731312</v>
+        <v>11.43862476363658</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.8541176852186581</v>
+        <v>0.8783661719713377</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.12556622556989</v>
+        <v>14.74895289781949</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.462519369421668</v>
+        <v>5.141234467308671</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23.37700065944333</v>
+        <v>23.89772832902472</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.627632627031137</v>
+        <v>1.966909261998933</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>17.69662697400769</v>
+        <v>17.74315828312714</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>0.05471309698970947</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>3.030606825813794</v>
+        <v>3.030606825813793</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.1679996235519416</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.8098063983649887</v>
+        <v>-0.798564778015582</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.7443940248005436</v>
+        <v>0.7145773785322015</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4914211794052332</v>
+        <v>-0.4683576318795502</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1.409091599604928</v>
+        <v>1.554650871378985</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5357230916302232</v>
+        <v>-0.5154206008677844</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1.430243988247633</v>
+        <v>1.628706290561287</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.388295481618562</v>
+        <v>0.4676400050372081</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.520550134824641</v>
+        <v>5.009058776964104</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.047122674284466</v>
+        <v>1.229799631444678</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5.471460555666082</v>
+        <v>5.679079650773161</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3916626408791231</v>
+        <v>0.5247444559749849</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>4.278090545913199</v>
+        <v>4.48370634016488</v>
       </c>
     </row>
     <row r="40">
@@ -1572,7 +1572,7 @@
         <v>1.454894441430262</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>5.530607368312487</v>
+        <v>5.530607368312489</v>
       </c>
       <c r="E40" s="5" t="n">
         <v>0.0003535367818940927</v>
@@ -1584,7 +1584,7 @@
         <v>0.7182206640471749</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.775402022664599</v>
+        <v>8.775402022664602</v>
       </c>
     </row>
     <row r="41">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5251348415126847</v>
+        <v>-0.5850655426602183</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.321041474758114</v>
+        <v>3.148632505063746</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.4292192659896</v>
+        <v>-3.191093401619138</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.277624117399148</v>
+        <v>8.054088551996482</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.328425885748155</v>
+        <v>-1.183498006565991</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.324276859329053</v>
+        <v>6.646973543538548</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.430085205128536</v>
+        <v>3.443935842816496</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>8.226534871944793</v>
+        <v>8.096242424672193</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.997951029611253</v>
+        <v>3.294331338702853</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15.0141853245992</v>
+        <v>15.15628170539066</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>2.58321112196087</v>
+        <v>2.864881226440874</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.78360982136773</v>
+        <v>11.09599141708524</v>
       </c>
     </row>
     <row r="43">
@@ -1650,7 +1650,7 @@
         <v>0.5621506260865877</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>2.136948431584881</v>
+        <v>2.136948431584882</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>3.889423300773355e-05</v>
@@ -1662,7 +1662,7 @@
         <v>0.121457905630461</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>1.484003460346201</v>
+        <v>1.484003460346202</v>
       </c>
     </row>
     <row r="44">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1863242942174638</v>
+        <v>-0.1818111196642321</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.7524872920232138</v>
+        <v>0.7870109863589293</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3216541558397761</v>
+        <v>-0.2970177652080063</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.7522402347944981</v>
+        <v>0.7113623887912923</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1923213909064208</v>
+        <v>-0.1766861530301618</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8880894022515792</v>
+        <v>0.9229871693931436</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.955751468413847</v>
+        <v>1.957190848250556</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>4.640700263083425</v>
+        <v>4.661661557796292</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4025900663960962</v>
+        <v>0.458223022314084</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.066086496873656</v>
+        <v>2.014077675859567</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.533960036756192</v>
+        <v>0.5823267415227024</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.176498419645084</v>
+        <v>2.266086461535978</v>
       </c>
     </row>
     <row r="46">
@@ -1738,7 +1738,7 @@
         <v>2.704044926522498</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>4.289302037386642</v>
+        <v>4.289302037386644</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>2.135851147037356</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.03773847607487243</v>
+        <v>-0.1487637319152589</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.269056151329604</v>
+        <v>0.9994593060177251</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.236008925678296</v>
+        <v>0.03546501117853948</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.340186861862492</v>
+        <v>1.890769881021518</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.6634286339946738</v>
+        <v>0.4729692922448147</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.774437417804919</v>
+        <v>1.920351193381396</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.173418426681859</v>
+        <v>3.101948390061722</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.451401889703142</v>
+        <v>4.188902930409575</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.839593967666809</v>
+        <v>5.738603422870927</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.867830915137005</v>
+        <v>6.874640221349271</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.860433465688754</v>
+        <v>3.765541333447409</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.887489413301531</v>
+        <v>4.979763009802153</v>
       </c>
     </row>
     <row r="49">
@@ -1816,7 +1816,7 @@
         <v>0.3706150696728049</v>
       </c>
       <c r="F49" s="6" t="n">
-        <v>0.5878896307681331</v>
+        <v>0.5878896307681334</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4687922058033814</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.08072487234123488</v>
+        <v>-0.1044920938500328</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4291675673263061</v>
+        <v>0.3147917521941805</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.03715943041809758</v>
+        <v>-0.01564318417518093</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1267280851422195</v>
+        <v>0.2080360798390185</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1264451877787103</v>
+        <v>0.0841956654354343</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3196178582946761</v>
+        <v>0.3566213551363875</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.163395032876006</v>
+        <v>2.782969359639579</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>5.050601438103572</v>
+        <v>3.831415051608017</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9494906357308964</v>
+        <v>0.9041785289079131</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>1.131155673561474</v>
+        <v>1.18144040840229</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.020780824640198</v>
+        <v>0.9902174640922864</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.311159112493317</v>
+        <v>1.343590322256861</v>
       </c>
     </row>
     <row r="52">
@@ -1904,7 +1904,7 @@
         <v>-0.3688659130596232</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>4.643847315174317</v>
+        <v>4.643847315174315</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.296390495089203</v>
+        <v>-1.225938651628846</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.412628991799589</v>
+        <v>2.317902782021688</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.753648780223899</v>
+        <v>-1.743354312135889</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>4.257177931454861</v>
+        <v>4.367377389953115</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.214752884611964</v>
+        <v>-1.18063617824961</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>3.769785132482854</v>
+        <v>3.720239704332843</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.5102773687878961</v>
+        <v>0.4562741811379081</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.487978320050109</v>
+        <v>4.408130735548451</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.23634711315755</v>
+        <v>1.244297064324208</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7.054800120474977</v>
+        <v>7.116621498010343</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.5537068691799153</v>
+        <v>0.4617620500427426</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.572659466246365</v>
+        <v>5.494280095192516</v>
       </c>
     </row>
     <row r="55">
@@ -1982,7 +1982,7 @@
         <v>-0.0569605984003015</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.7171069827458044</v>
+        <v>0.7171069827458042</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.3174260499054395</v>
+        <v>-0.3154736685637693</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.5867347316968243</v>
+        <v>0.5746161940301773</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.1755549632402864</v>
+        <v>-0.1688089764442379</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.4276765069490074</v>
+        <v>0.4341735247079389</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1784350091408502</v>
+        <v>-0.1736570097199781</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5433063326239919</v>
+        <v>0.5400513230892052</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.1592210626660022</v>
+        <v>0.1453290537190819</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>1.465946836928513</v>
+        <v>1.421655261622582</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1421221812986893</v>
+        <v>0.143996464265059</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.8234194977998724</v>
+        <v>0.8207751967302804</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.0969700618797497</v>
+        <v>0.0758071256785426</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.9174869076258646</v>
+        <v>0.9223357199924861</v>
       </c>
     </row>
     <row r="58">
